--- a/examples/WealthDistribution/data/excel_source/scenarios2.xlsx
+++ b/examples/WealthDistribution/data/excel_source/scenarios2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12957\Documents\Developing\Python\melodie\examples\Wealth-Distribution-ParamFromExcel\data\excel_source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Dropbox\ABM4ALL\Melodie\examples\WealthDistribution\data\excel_source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4670402A-0690-4E6B-A86E-63015A418D67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15705" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15710" windowHeight="12230"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="1" r:id="rId1"/>
@@ -66,19 +65,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -139,7 +138,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -450,26 +449,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +498,7 @@
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="16.5">
       <c r="A2">
         <v>0</v>
       </c>
@@ -529,7 +528,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="16.5">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -559,7 +558,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -589,7 +588,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -601,7 +600,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="16.5">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -613,7 +612,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -625,7 +624,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
